--- a/experiment/quadratic/ex9_2_4/compare/Fuertemente-Estacionario/ex9_2_4_Fuertemente-Estacionario.xlsx
+++ b/experiment/quadratic/ex9_2_4/compare/Fuertemente-Estacionario/ex9_2_4_Fuertemente-Estacionario.xlsx
@@ -479,13 +479,13 @@
         <v>3537.1065438563674</v>
       </c>
       <c r="E2">
-        <v>0.00672192</v>
+        <v>0.004834773</v>
       </c>
       <c r="F2">
-        <v>0.01862163</v>
+        <v>0.010556024</v>
       </c>
       <c r="G2">
-        <v>0.008650238786828423</v>
+        <v>0.006134994812039312</v>
       </c>
       <c r="H2">
         <v>4565</v>
